--- a/documents/単体テスト仕様書_タスク削除機能.xlsx
+++ b/documents/単体テスト仕様書_タスク削除機能.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\auttask\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user34\Documents\project\auttask\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AE34F-3C25-44E8-B332-D419F5093D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D8435E-9FE1-44A6-B3CB-9C3328F755D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="1" r:id="rId1"/>
+    <sheet name="タスク削除機能エビデンス" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -674,32 +675,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,35 +753,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -775,6 +776,583 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D063D834-89A5-8298-5361-7BB022D28C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="0"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6020E9AC-5A91-40B9-23F4-0100974D3874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="0"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9976CFD6-ECD3-3B47-DA70-6C396A70B273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7620000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2EE9F0-F5DA-7CAE-BE52-09E770605C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="7620000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82523C8-E7F2-9677-0C7D-DF2BBF3358AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28117800" y="7620000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F7971A-27F5-D1C1-0797-750B082D29A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41833800" y="7620000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8857DB-A905-8B66-4DA8-0ECD4BE9CEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15240000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B93F2A4-F038-639C-19C0-E852310D5692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="15240000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3264A8D3-D6E6-614B-B794-B642A73AD1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28117800" y="15240000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3C61A-7815-F53B-1BD1-66F5C4843661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22860000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC82A284-22A7-9E06-2D78-364C3E7DF618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="22860000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77662123-DBD1-B57B-E745-9D693B9606CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28117800" y="22860000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0446690C-7B97-FFA7-CD4D-8272D695545C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41833800" y="22860000"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493368B-FD8E-4309-A490-03D000701908}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G26"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15.75"/>
@@ -1112,70 +1690,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="35">
         <v>45582</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30"/>
+      <c r="R2" s="38">
+        <v>45586</v>
+      </c>
+      <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="4"/>
@@ -1205,706 +1785,675 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="31" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="7">
         <v>1</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:19" ht="33" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="19" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="7">
         <v>2</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="B17" s="7"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" ht="33.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="19" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7">
         <v>3</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" ht="32.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" ht="34.5" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="36" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15" t="s">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="36" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:P16"/>
@@ -1929,37 +2478,100 @@
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC86FCD-B205-42AF-96FE-63871995C6B0}">
+  <dimension ref="A33:A97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BL103" workbookViewId="0">
+      <selection activeCell="BI101" sqref="BI101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>